--- a/STXBP1-variants-prioritized.xlsx
+++ b/STXBP1-variants-prioritized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI2021/variants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA87B735-C59C-D444-A378-39F8507774E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0159BE-9243-6246-8A25-3E47753A87B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1120" windowWidth="43580" windowHeight="23060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STXBP1_dm" sheetId="1" r:id="rId1"/>
@@ -3377,7 +3377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3517,6 +3517,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="40">
@@ -3917,7 +3925,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3929,6 +3937,9 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4286,8 +4297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O12" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4861,7 +4872,7 @@
       <c r="AI5" s="4">
         <v>2</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AJ5" s="11">
         <v>1</v>
       </c>
       <c r="AK5" s="4" t="s">
@@ -4968,7 +4979,7 @@
       <c r="AI6" s="4">
         <v>2</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AJ6" s="11">
         <v>1</v>
       </c>
       <c r="AK6" s="4" t="s">
@@ -5075,7 +5086,7 @@
       <c r="AI7" s="6">
         <v>3</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="12">
         <v>1</v>
       </c>
       <c r="AK7" s="6" t="s">
@@ -6626,7 +6637,7 @@
       <c r="AI22" s="8">
         <v>5</v>
       </c>
-      <c r="AJ22" s="8">
+      <c r="AJ22" s="13">
         <v>1</v>
       </c>
       <c r="AK22" s="8" t="s">
@@ -6733,7 +6744,7 @@
       <c r="AI23" s="8">
         <v>5</v>
       </c>
-      <c r="AJ23" s="8">
+      <c r="AJ23" s="13">
         <v>1</v>
       </c>
       <c r="AK23" s="8" t="s">
@@ -6840,7 +6851,7 @@
       <c r="AI24" s="8">
         <v>5</v>
       </c>
-      <c r="AJ24" s="8">
+      <c r="AJ24" s="13">
         <v>1</v>
       </c>
       <c r="AK24" s="8" t="s">
@@ -6947,7 +6958,7 @@
       <c r="AI25" s="8">
         <v>5</v>
       </c>
-      <c r="AJ25" s="8">
+      <c r="AJ25" s="13">
         <v>1</v>
       </c>
       <c r="AK25" s="8" t="s">
